--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T07:19:23+00:00</t>
+    <t>2021-09-12T07:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-12T07:37:00+00:00</t>
+    <t>2021-09-18T10:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-18T10:16:13+00:00</t>
+    <t>2021-09-25T01:43:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-25T01:43:32+00:00</t>
+    <t>2021-09-26T03:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T03:05:54+00:00</t>
+    <t>2021-09-26T04:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-26T04:27:45+00:00</t>
+    <t>2021-09-30T09:59:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-30T09:59:38+00:00</t>
+    <t>2021-10-06T13:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T13:35:19+00:00</t>
+    <t>2021-10-06T13:42:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T13:42:37+00:00</t>
+    <t>2021-10-29T12:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:02:00+00:00</t>
+    <t>2021-10-29T12:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:05:23+00:00</t>
+    <t>2021-10-29T13:08:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T13:08:24+00:00</t>
+    <t>2021-10-29T13:58:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -36,12 +36,15 @@
     <t>Name</t>
   </si>
   <si>
+    <t>HIVPregnancyOutcome</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>HIV Pregnancy Outcome</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T13:58:33+00:00</t>
+    <t>2022-01-16T18:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -333,119 +336,121 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2"/>
     </row>
@@ -464,75 +469,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2"/>
     </row>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:45:36+00:00</t>
+    <t>2022-01-16T18:50:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:50:07+00:00</t>
+    <t>2022-01-16T18:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:51:47+00:00</t>
+    <t>2022-01-16T19:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T19:00:02+00:00</t>
+    <t>2022-01-16T19:22:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T19:22:42+00:00</t>
+    <t>2022-02-25T20:09:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:09:43+00:00</t>
+    <t>2022-02-25T20:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:11:49+00:00</t>
+    <t>2022-02-25T20:13:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:13:21+00:00</t>
+    <t>2022-02-25T20:43:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:43:03+00:00</t>
+    <t>2022-02-25T20:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:52:14+00:00</t>
+    <t>2022-02-25T20:59:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:59:17+00:00</t>
+    <t>2022-02-25T21:00:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:00:17+00:00</t>
+    <t>2022-02-25T21:34:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -36,15 +36,12 @@
     <t>Name</t>
   </si>
   <si>
-    <t>HIVPregnancyOutcome</t>
+    <t>HIV Pregnancy Outcome</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>HIV Pregnancy Outcome</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -57,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:34:18+00:00</t>
+    <t>2022-02-25T21:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -336,121 +333,119 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>9</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>10</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2"/>
     </row>
@@ -469,75 +464,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>35</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>38</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="D6" s="2"/>
     </row>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -36,12 +36,15 @@
     <t>Name</t>
   </si>
   <si>
+    <t>HIVPregnancyOutcome</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>HIV Pregnancy Outcome</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T21:36:43+00:00</t>
+    <t>2022-03-02T07:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -333,119 +336,121 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2"/>
     </row>
@@ -464,75 +469,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2"/>
     </row>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T07:06:01+00:00</t>
+    <t>2022-03-02T18:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T18:06:48+00:00</t>
+    <t>2022-03-04T08:28:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:28:51+00:00</t>
+    <t>2022-03-04T08:37:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:37:21+00:00</t>
+    <t>2022-03-08T06:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -36,15 +36,12 @@
     <t>Name</t>
   </si>
   <si>
-    <t>HIVPregnancyOutcome</t>
+    <t>HIV Pregnancy Outcome</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>HIV Pregnancy Outcome</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -57,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-08T06:55:36+00:00</t>
+    <t>2022-03-16T09:10:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -336,121 +333,119 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>9</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>10</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2"/>
     </row>
@@ -469,75 +464,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>34</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>35</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>38</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>44</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="D6" s="2"/>
     </row>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -36,12 +36,15 @@
     <t>Name</t>
   </si>
   <si>
+    <t>HIVPregnancyOutcome</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>HIV Pregnancy Outcome</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:10:28+00:00</t>
+    <t>2022-03-23T08:06:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -333,119 +336,121 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2"/>
     </row>
@@ -464,75 +469,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2"/>
     </row>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T08:06:35+00:00</t>
+    <t>2022-03-25T09:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-pregnancy-outcome.xlsx
+++ b/CodeSystem-cs-pregnancy-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T09:06:52+00:00</t>
+    <t>2022-03-29T15:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
